--- a/SAND/lab_1/V11 — копия.xlsx
+++ b/SAND/lab_1/V11 — копия.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Екатерина\vs_code_files\SAND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Екатерина\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="0" windowWidth="21924" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="V11 — копия" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="51">
   <si>
     <t>A6</t>
   </si>
@@ -178,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +331,11 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="34">
@@ -519,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -634,6 +640,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -679,9 +700,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1005,16 +1038,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1151,7 @@
         <v>1.3118082518671843E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1226,7 +1259,7 @@
         <v>2.0066401546937136E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1313,7 @@
         <v>2.8986666133578552E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1421,7 @@
         <v>1.3088367365409117E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1475,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1550,7 +1583,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1691,7 @@
         <v>2.1956087824351298E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1745,7 @@
         <v>7.4074074074074077E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1766,7 +1799,7 @@
         <v>5.544005544005544E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +1853,7 @@
         <v>3.0769230769230769E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1874,7 +1907,7 @@
         <v>1.6248153618906941E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +1961,7 @@
         <v>7.5290896646132786E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +2015,7 @@
         <v>9.7847358121330719E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2036,7 +2069,7 @@
         <v>1.1124845488257108E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2090,7 +2123,7 @@
         <v>2.5505199136747108E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2177,7 @@
         <v>9.9833610648918467E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>3.6492314497401303E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2285,7 @@
         <v>4.4178340987037143E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2306,7 +2339,7 @@
         <v>1.8463645974478476E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2360,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2395,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2500,7 +2533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2535,7 +2568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2570,7 +2603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2605,7 +2638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2640,7 +2673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2675,7 +2708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2815,7 +2848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2885,7 +2918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2955,7 +2988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2990,7 +3023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3025,7 +3058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3060,7 +3093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3095,7 +3128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3165,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3235,7 +3268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3270,7 +3303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3305,7 +3338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3340,7 +3373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3375,7 +3408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3410,7 +3443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3445,7 +3478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3515,7 +3548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3550,7 +3583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3585,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +3653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3655,7 +3688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -3690,7 +3723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +3758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -3760,7 +3793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -3795,7 +3828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3830,7 +3863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -3865,7 +3898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3900,7 +3933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +3968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3970,7 +4003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -4005,7 +4038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -4040,7 +4073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -4145,7 +4178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -4180,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -4215,7 +4248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -4250,7 +4283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -4285,7 +4318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -4320,7 +4353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -4355,7 +4388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -4390,7 +4423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -4425,7 +4458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -4460,7 +4493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -4495,7 +4528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -4565,7 +4598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4600,7 +4633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -4635,7 +4668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -4670,7 +4703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -4705,7 +4738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -4740,7 +4773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -4775,7 +4808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -4810,7 +4843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -4845,7 +4878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +4948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4950,7 +4983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4985,7 +5018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -5020,7 +5053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -5055,7 +5088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -5125,7 +5158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -5160,7 +5193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -5195,7 +5228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -5230,7 +5263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -5265,7 +5298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -5300,7 +5333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -5335,7 +5368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -5370,7 +5403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -5405,7 +5438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -5440,7 +5473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -5475,7 +5508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -5510,7 +5543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -5545,7 +5578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -5580,7 +5613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -5615,7 +5648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -5650,7 +5683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -5685,7 +5718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -5720,7 +5753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -5755,7 +5788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -5790,7 +5823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -5825,7 +5858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -5860,7 +5893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -5895,7 +5928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -5930,7 +5963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -5965,7 +5998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -6000,7 +6033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -6035,7 +6068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -6070,7 +6103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -6105,7 +6138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -6140,7 +6173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -6175,7 +6208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -6210,7 +6243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -6245,7 +6278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -6280,7 +6313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -6315,7 +6348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -6350,7 +6383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -6385,7 +6418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -6420,7 +6453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -6455,7 +6488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -6490,7 +6523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -6525,7 +6558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -6560,7 +6593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -6595,7 +6628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -6630,7 +6663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -6665,7 +6698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -6700,7 +6733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -6735,7 +6768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -6770,7 +6803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -6805,7 +6838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -6840,7 +6873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -6875,7 +6908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -6910,7 +6943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -6945,7 +6978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -6980,7 +7013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -7015,7 +7048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -7050,7 +7083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -7085,7 +7118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -7120,7 +7153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -7155,7 +7188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -7190,7 +7223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -7225,7 +7258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -7260,7 +7293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -7295,7 +7328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -7330,7 +7363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -7365,7 +7398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -7400,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -7435,7 +7468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -7470,7 +7503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -7505,7 +7538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -7540,7 +7573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -7575,7 +7608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -7610,7 +7643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -7645,7 +7678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -7680,7 +7713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -7715,7 +7748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -7750,7 +7783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -7785,7 +7818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -7820,7 +7853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -7855,7 +7888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +7923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -7925,7 +7958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -7960,7 +7993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -7995,7 +8028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -8030,7 +8063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -8065,7 +8098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -8100,7 +8133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -8170,7 +8203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -8205,7 +8238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -8240,7 +8273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -8275,7 +8308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -8310,7 +8343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -8345,7 +8378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -8380,7 +8413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -8415,7 +8448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -8450,7 +8483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -8485,7 +8518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -8520,7 +8553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -8555,7 +8588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -8590,7 +8623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -8625,7 +8658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -8660,7 +8693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -8695,7 +8728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -8730,7 +8763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -8765,7 +8798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -8800,7 +8833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -8870,7 +8903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -8905,7 +8938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -8940,7 +8973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -8975,7 +9008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -9010,7 +9043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -9045,7 +9078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -9080,7 +9113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -9115,7 +9148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -9150,7 +9183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -9185,7 +9218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -9220,7 +9253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -9255,7 +9288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -9290,7 +9323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -9325,7 +9358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -9360,7 +9393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -9395,7 +9428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -9430,7 +9463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -9465,7 +9498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -9500,7 +9533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -9535,7 +9568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -9570,7 +9603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -9605,7 +9638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -9640,7 +9673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -9675,7 +9708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -9710,7 +9743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -9745,7 +9778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -9780,7 +9813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -9815,7 +9848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -9850,7 +9883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -9885,7 +9918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -9920,7 +9953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -9955,7 +9988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -9990,7 +10023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -10025,7 +10058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10060,7 +10093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -10095,7 +10128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -10130,7 +10163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -10165,7 +10198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -10200,7 +10233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -10235,7 +10268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -10270,7 +10303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -10305,7 +10338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -10340,7 +10373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -10375,7 +10408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -10410,7 +10443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -10445,7 +10478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -10480,7 +10513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -10515,7 +10548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -10550,7 +10583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -10585,7 +10618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -10620,7 +10653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -10655,7 +10688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -10690,7 +10723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -10725,7 +10758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -10760,7 +10793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -10795,7 +10828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -10830,7 +10863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -10865,7 +10898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -10900,7 +10933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -10935,7 +10968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -10970,7 +11003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -11005,7 +11038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -11040,7 +11073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -11075,7 +11108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -11110,7 +11143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -11145,7 +11178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -11180,7 +11213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -11215,7 +11248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -11250,7 +11283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -11285,7 +11318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -11320,7 +11353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -11355,7 +11388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -11390,7 +11423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -11425,7 +11458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -11460,7 +11493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -11495,7 +11528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -11530,7 +11563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -11565,7 +11598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -11600,7 +11633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -11635,7 +11668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -11670,7 +11703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -11705,7 +11738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -11740,7 +11773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -11775,7 +11808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -11810,7 +11843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11845,7 +11878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -11880,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -11915,7 +11948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -11950,7 +11983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -11985,7 +12018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -12020,7 +12053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -12055,7 +12088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -12090,7 +12123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -12125,7 +12158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -12160,7 +12193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -12195,7 +12228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -12230,7 +12263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -12265,7 +12298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -12300,7 +12333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -12335,7 +12368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -12370,7 +12403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -12405,7 +12438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -12440,7 +12473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -12475,7 +12508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -12510,7 +12543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -12545,7 +12578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -12580,7 +12613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -12615,7 +12648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -12650,7 +12683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -12685,7 +12718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -12720,7 +12753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -12755,7 +12788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -12790,7 +12823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -12825,7 +12858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12860,7 +12893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -12895,7 +12928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -12930,7 +12963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -12965,7 +12998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -13000,7 +13033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -13035,7 +13068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -13070,7 +13103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -13105,7 +13138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -13140,7 +13173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -13175,7 +13208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -13210,7 +13243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -13245,7 +13278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -13280,7 +13313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -13315,7 +13348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -13350,7 +13383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -13385,7 +13418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -13420,7 +13453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -13455,7 +13488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -13490,7 +13523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -13525,7 +13558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -13560,7 +13593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -13595,7 +13628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -13630,7 +13663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -13665,7 +13698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -13700,7 +13733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -13735,7 +13768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -13770,7 +13803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -13805,7 +13838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -13840,7 +13873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13875,7 +13908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -13910,7 +13943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -13945,7 +13978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13980,7 +14013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -14015,7 +14048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -14050,7 +14083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -14085,7 +14118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -14120,7 +14153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -14155,7 +14188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -14190,7 +14223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -14225,7 +14258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -14260,7 +14293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11">
       <c r="A366" t="s">
         <v>11</v>
       </c>
@@ -14295,7 +14328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -14330,7 +14363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11">
       <c r="A368" t="s">
         <v>11</v>
       </c>
@@ -14365,7 +14398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11">
       <c r="A369" t="s">
         <v>11</v>
       </c>
@@ -14400,7 +14433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11">
       <c r="A370" t="s">
         <v>11</v>
       </c>
@@ -14435,7 +14468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11">
       <c r="A371" t="s">
         <v>11</v>
       </c>
@@ -14470,7 +14503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -14505,7 +14538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11">
       <c r="A373" t="s">
         <v>11</v>
       </c>
@@ -14540,7 +14573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11">
       <c r="A374" t="s">
         <v>11</v>
       </c>
@@ -14575,7 +14608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11">
       <c r="A375" t="s">
         <v>11</v>
       </c>
@@ -14610,7 +14643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -14645,7 +14678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11">
       <c r="A377" t="s">
         <v>11</v>
       </c>
@@ -14680,7 +14713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11">
       <c r="A378" t="s">
         <v>11</v>
       </c>
@@ -14715,7 +14748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11">
       <c r="A379" t="s">
         <v>11</v>
       </c>
@@ -14750,7 +14783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11">
       <c r="A380" t="s">
         <v>11</v>
       </c>
@@ -14785,7 +14818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11">
       <c r="A381" t="s">
         <v>11</v>
       </c>
@@ -14820,7 +14853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -14855,7 +14888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -14890,7 +14923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11">
       <c r="A384" t="s">
         <v>11</v>
       </c>
@@ -14925,7 +14958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -14960,7 +14993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11">
       <c r="A386" t="s">
         <v>11</v>
       </c>
@@ -14995,7 +15028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11">
       <c r="A387" t="s">
         <v>11</v>
       </c>
@@ -15030,7 +15063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11">
       <c r="A388" t="s">
         <v>11</v>
       </c>
@@ -15065,7 +15098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11">
       <c r="A389" t="s">
         <v>11</v>
       </c>
@@ -15100,7 +15133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11">
       <c r="A390" t="s">
         <v>11</v>
       </c>
@@ -15135,7 +15168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11">
       <c r="A391" t="s">
         <v>11</v>
       </c>
@@ -15170,7 +15203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -15205,7 +15238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11">
       <c r="A393" t="s">
         <v>11</v>
       </c>
@@ -15240,7 +15273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11">
       <c r="A394" t="s">
         <v>11</v>
       </c>
@@ -15275,7 +15308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -15310,7 +15343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11">
       <c r="A396" t="s">
         <v>11</v>
       </c>
@@ -15345,7 +15378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11">
       <c r="A397" t="s">
         <v>11</v>
       </c>
@@ -15380,7 +15413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11">
       <c r="A398" t="s">
         <v>11</v>
       </c>
@@ -15415,7 +15448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11">
       <c r="A399" t="s">
         <v>11</v>
       </c>
@@ -15450,7 +15483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11">
       <c r="A400" t="s">
         <v>11</v>
       </c>
@@ -15485,7 +15518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11">
       <c r="A401" t="s">
         <v>11</v>
       </c>
@@ -15520,7 +15553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11">
       <c r="A402" t="s">
         <v>11</v>
       </c>
@@ -15555,7 +15588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11">
       <c r="A403" t="s">
         <v>11</v>
       </c>
@@ -15590,7 +15623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11">
       <c r="A404" t="s">
         <v>11</v>
       </c>
@@ -15625,7 +15658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11">
       <c r="A405" t="s">
         <v>11</v>
       </c>
@@ -15660,7 +15693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11">
       <c r="A406" t="s">
         <v>11</v>
       </c>
@@ -15695,7 +15728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11">
       <c r="A407" t="s">
         <v>11</v>
       </c>
@@ -15730,7 +15763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11">
       <c r="A408" t="s">
         <v>11</v>
       </c>
@@ -15765,7 +15798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11">
       <c r="A409" t="s">
         <v>11</v>
       </c>
@@ -15800,7 +15833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11">
       <c r="A410" t="s">
         <v>11</v>
       </c>
@@ -15835,7 +15868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -15870,7 +15903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11">
       <c r="A412" t="s">
         <v>11</v>
       </c>
@@ -15905,7 +15938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11">
       <c r="A413" t="s">
         <v>11</v>
       </c>
@@ -15940,7 +15973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11">
       <c r="A414" t="s">
         <v>11</v>
       </c>
@@ -15975,7 +16008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -16010,7 +16043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -16045,7 +16078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -16080,7 +16113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -16115,7 +16148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -16150,7 +16183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -16185,7 +16218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -16220,7 +16253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -16255,7 +16288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -16290,7 +16323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -16325,7 +16358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -16360,7 +16393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -16395,7 +16428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -16430,7 +16463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -16465,7 +16498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -16500,7 +16533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -16535,7 +16568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -16570,7 +16603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -16605,7 +16638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -16640,7 +16673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -16675,7 +16708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -16710,7 +16743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -16745,7 +16778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -16780,7 +16813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11">
       <c r="A438" t="s">
         <v>11</v>
       </c>
@@ -16815,7 +16848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11">
       <c r="A439" t="s">
         <v>11</v>
       </c>
@@ -16850,7 +16883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11">
       <c r="A440" t="s">
         <v>11</v>
       </c>
@@ -16885,7 +16918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -16920,7 +16953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11">
       <c r="A442" t="s">
         <v>11</v>
       </c>
@@ -16955,7 +16988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11">
       <c r="A443" t="s">
         <v>11</v>
       </c>
@@ -16990,7 +17023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -17025,7 +17058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11">
       <c r="A445" t="s">
         <v>11</v>
       </c>
@@ -17060,7 +17093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -17095,7 +17128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -17130,7 +17163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -17165,7 +17198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11">
       <c r="A449" t="s">
         <v>11</v>
       </c>
@@ -17200,7 +17233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11">
       <c r="A450" t="s">
         <v>11</v>
       </c>
@@ -17235,7 +17268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11">
       <c r="A451" t="s">
         <v>11</v>
       </c>
@@ -17270,7 +17303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11">
       <c r="A452" t="s">
         <v>11</v>
       </c>
@@ -17305,7 +17338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11">
       <c r="A453" t="s">
         <v>11</v>
       </c>
@@ -17340,7 +17373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11">
       <c r="A454" t="s">
         <v>11</v>
       </c>
@@ -17375,7 +17408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11">
       <c r="A455" t="s">
         <v>11</v>
       </c>
@@ -17410,7 +17443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11">
       <c r="A456" t="s">
         <v>11</v>
       </c>
@@ -17445,7 +17478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11">
       <c r="A457" t="s">
         <v>11</v>
       </c>
@@ -17480,7 +17513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11">
       <c r="A458" t="s">
         <v>11</v>
       </c>
@@ -17515,7 +17548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11">
       <c r="A459" t="s">
         <v>11</v>
       </c>
@@ -17550,7 +17583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -17585,7 +17618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11">
       <c r="A461" t="s">
         <v>11</v>
       </c>
@@ -17620,7 +17653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11">
       <c r="A462" t="s">
         <v>11</v>
       </c>
@@ -17655,7 +17688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11">
       <c r="A463" t="s">
         <v>11</v>
       </c>
@@ -17690,7 +17723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -17725,7 +17758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11">
       <c r="A465" t="s">
         <v>11</v>
       </c>
@@ -17760,7 +17793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11">
       <c r="A466" t="s">
         <v>11</v>
       </c>
@@ -17795,7 +17828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11">
       <c r="A467" t="s">
         <v>11</v>
       </c>
@@ -17830,7 +17863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11">
       <c r="A468" t="s">
         <v>11</v>
       </c>
@@ -17865,7 +17898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11">
       <c r="A469" t="s">
         <v>11</v>
       </c>
@@ -17900,7 +17933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11">
       <c r="A470" t="s">
         <v>11</v>
       </c>
@@ -17935,7 +17968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11">
       <c r="A471" t="s">
         <v>11</v>
       </c>
@@ -17970,7 +18003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11">
       <c r="A472" t="s">
         <v>11</v>
       </c>
@@ -18005,7 +18038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11">
       <c r="A473" t="s">
         <v>11</v>
       </c>
@@ -18040,7 +18073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11">
       <c r="A474" t="s">
         <v>11</v>
       </c>
@@ -18075,7 +18108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11">
       <c r="A475" t="s">
         <v>11</v>
       </c>
@@ -18110,7 +18143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11">
       <c r="A476" t="s">
         <v>11</v>
       </c>
@@ -18145,7 +18178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11">
       <c r="A477" t="s">
         <v>11</v>
       </c>
@@ -18180,7 +18213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11">
       <c r="A478" t="s">
         <v>11</v>
       </c>
@@ -18215,7 +18248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11">
       <c r="A479" t="s">
         <v>11</v>
       </c>
@@ -18250,7 +18283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11">
       <c r="A480" t="s">
         <v>11</v>
       </c>
@@ -18285,7 +18318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11">
       <c r="A481" t="s">
         <v>11</v>
       </c>
@@ -18320,7 +18353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11">
       <c r="A482" t="s">
         <v>11</v>
       </c>
@@ -18355,7 +18388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11">
       <c r="A483" t="s">
         <v>11</v>
       </c>
@@ -18390,7 +18423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11">
       <c r="A484" t="s">
         <v>11</v>
       </c>
@@ -18425,7 +18458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11">
       <c r="A485" t="s">
         <v>11</v>
       </c>
@@ -18460,7 +18493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11">
       <c r="A486" t="s">
         <v>11</v>
       </c>
@@ -18495,7 +18528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11">
       <c r="A487" t="s">
         <v>11</v>
       </c>
@@ -18530,7 +18563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11">
       <c r="A488" t="s">
         <v>11</v>
       </c>
@@ -18565,7 +18598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11">
       <c r="A489" t="s">
         <v>11</v>
       </c>
@@ -18600,7 +18633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11">
       <c r="A490" t="s">
         <v>11</v>
       </c>
@@ -18635,7 +18668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11">
       <c r="A491" t="s">
         <v>11</v>
       </c>
@@ -18670,7 +18703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -18705,7 +18738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11">
       <c r="A493" t="s">
         <v>11</v>
       </c>
@@ -18740,7 +18773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11">
       <c r="A494" t="s">
         <v>11</v>
       </c>
@@ -18775,7 +18808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11">
       <c r="A495" t="s">
         <v>11</v>
       </c>
@@ -18810,7 +18843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11">
       <c r="A496" t="s">
         <v>11</v>
       </c>
@@ -18845,7 +18878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11">
       <c r="A497" t="s">
         <v>11</v>
       </c>
@@ -18880,7 +18913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -18915,7 +18948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -18950,7 +18983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -18985,7 +19018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11">
       <c r="A501" t="s">
         <v>11</v>
       </c>
@@ -19024,4 +19057,2270 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>2.8192999999999999E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.20849000000000001</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.18571499999999999</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4.5139999999999998E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.13339599999999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.7149000000000001E-2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.0992999999999999E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2.7052E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.8192999999999999E-2</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>5.6286000000000003E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.9742000000000001E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.1424999999999999E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4.1339000000000001E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3.7221999999999998E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3.0020000000000002E-2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2.784E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.7368999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.20849000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.6286000000000003E-2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>0.66434000000000004</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.6476999999999997E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.19719</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.12230199999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7.4398000000000006E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>6.9026000000000004E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>9.1930999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.18571499999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.9742000000000001E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.66434000000000004</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>6.8469999999999998E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.12682299999999999</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.3222000000000002E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.6711E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2.6946000000000001E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4.5139999999999998E-3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.1424999999999999E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.6476999999999997E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.8469999999999998E-3</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
+        <v>9.757E-3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5.4112E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3.3534000000000001E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.13375899999999999</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.2369999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.13339599999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.1339000000000001E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.19719</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.12682299999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9.757E-3</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>9.8186999999999997E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>7.6144000000000003E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5.8541000000000003E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2.6882E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.7221999999999998E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.12230199999999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.3222000000000002E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.4112E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>9.8186999999999997E-2</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>8.7129999999999999E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.220552</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1.737E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.7149000000000001E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.0020000000000002E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7.4398000000000006E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.6711E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.3534000000000001E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7.6144000000000003E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8.7129999999999999E-2</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>4.7419000000000003E-2</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1.6060999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.0992999999999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2.784E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6.9026000000000004E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2.6946000000000001E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.13375899999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5.8541000000000003E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.220552</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.7419000000000003E-2</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>2.7744000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.7052E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.7368999999999999E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9.1930999999999999E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.2369999999999998E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2.6882E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.737E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.6060999999999999E-2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2.7744000000000001E-2</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>0.118992</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7.1682999999999997E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.13913900000000001</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4.8510000000000003E-3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5.7550999999999998E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.505E-3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>7.7219999999999997E-3</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1.3041000000000001E-2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2.793E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.9260999999999999E-2</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>1.9352000000000001E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2.2283000000000001E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.2279E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.7835E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.6278999999999998E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.3518000000000001E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3.3029999999999999E-3</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1.7933000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.216388</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.237565</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>0.49772899999999998</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4.9951000000000002E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>8.5073999999999997E-2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5.3489000000000002E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3.3502999999999998E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>8.1886E-2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>9.4914999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.19275100000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.12553</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.228413</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>7.3590000000000001E-3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5.4715E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.453E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>7.5249999999999996E-3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3.1966000000000001E-2</v>
+      </c>
+      <c r="L20" s="6">
+        <v>2.1480000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4.6849999999999999E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4.8219999999999999E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1.5980000000000001E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5.13E-3</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <v>4.2090000000000001E-3</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2.3666E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1.5101E-2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.15867800000000001</v>
+      </c>
+      <c r="L21" s="6">
+        <v>2.31E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.13844999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.17447699999999999</v>
+      </c>
+      <c r="E22" s="6">
+        <v>6.7797999999999997E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9.5017000000000004E-2</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.0486000000000001E-2</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6">
+        <v>4.2942000000000001E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3.4289E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>6.9446999999999995E-2</v>
+      </c>
+      <c r="L22" s="6">
+        <v>2.7754000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3.571E-3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.15710199999999999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.2049999999999997E-2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2.4889999999999999E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5.8157E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>4.2361000000000003E-2</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
+        <v>3.9236E-2</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.26163999999999998</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1.7933999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.7798999999999999E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.12670300000000001</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.5579000000000001E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1.252E-2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>3.6040999999999997E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3.2850999999999998E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>3.8106000000000001E-2</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6">
+        <v>5.6252999999999997E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1.6582E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.141E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.1750999999999999E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.3732E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2.0188000000000001E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.143758</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2.5256000000000001E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>9.6458000000000002E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2.1353E-2</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
+        <v>2.8645E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2.8077000000000001E-2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7.331E-2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3.1607999999999997E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1.5579999999999999E-3</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2.4039999999999999E-3</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.1598000000000001E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>7.5969999999999996E-3</v>
+      </c>
+      <c r="J26" s="6">
+        <v>7.2319999999999997E-3</v>
+      </c>
+      <c r="K26" s="6">
+        <v>3.2912999999999998E-2</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <v>4.6970999999999999E-2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.107691</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.16161500000000001</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4.7660000000000003E-3</v>
+      </c>
+      <c r="H31" s="6">
+        <v>8.1305000000000002E-2</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2.117E-3</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.0770999999999999E-2</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1.2171E-2</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2.8003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4.6970999999999999E-2</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>3.5789000000000001E-2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3.7846999999999999E-2</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1.9573E-2</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3.2362000000000002E-2</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2.9500999999999999E-2</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2.443E-2</v>
+      </c>
+      <c r="K32" s="6">
+        <v>5.156E-3</v>
+      </c>
+      <c r="L32" s="6">
+        <v>2.8816999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.107691</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3.5789000000000001E-2</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>0.31312800000000002</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2.4212999999999998E-2</v>
+      </c>
+      <c r="H33" s="6">
+        <v>7.5459999999999999E-2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4.7084000000000001E-2</v>
+      </c>
+      <c r="J33" s="6">
+        <v>2.9010000000000001E-2</v>
+      </c>
+      <c r="K33" s="6">
+        <v>3.6798999999999998E-2</v>
+      </c>
+      <c r="L33" s="6">
+        <v>4.7423E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.16161500000000001</v>
+      </c>
+      <c r="D34" s="6">
+        <v>3.7846999999999999E-2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.31312800000000002</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>6.045E-3</v>
+      </c>
+      <c r="H34" s="6">
+        <v>6.9442000000000004E-2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1.8348E-2</v>
+      </c>
+      <c r="J34" s="6">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2.4747000000000002E-2</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1.8060000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4.7660000000000003E-3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1.9573E-2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2.4212999999999998E-2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>6.045E-3</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
+        <v>6.0070000000000002E-3</v>
+      </c>
+      <c r="I35" s="6">
+        <v>3.3641999999999998E-2</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2.1284000000000001E-2</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.15085000000000001</v>
+      </c>
+      <c r="L35" s="6">
+        <v>2.356E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>8.1305000000000002E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3.2362000000000002E-2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7.5459999999999999E-2</v>
+      </c>
+      <c r="F36" s="6">
+        <v>6.9442000000000004E-2</v>
+      </c>
+      <c r="G36" s="6">
+        <v>6.0070000000000002E-3</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6">
+        <v>4.265E-2</v>
+      </c>
+      <c r="J36" s="6">
+        <v>3.3554E-2</v>
+      </c>
+      <c r="K36" s="6">
+        <v>3.7040999999999998E-2</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1.6358999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2.117E-3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2.9500999999999999E-2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4.7084000000000001E-2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1.8348E-2</v>
+      </c>
+      <c r="G37" s="6">
+        <v>3.3641999999999998E-2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>4.265E-2</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <v>3.8663000000000003E-2</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.14095199999999999</v>
+      </c>
+      <c r="L37" s="6">
+        <v>1.0673E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1.0770999999999999E-2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2.443E-2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2.9010000000000001E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2.1284000000000001E-2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>3.3554E-2</v>
+      </c>
+      <c r="I38" s="6">
+        <v>3.8663000000000003E-2</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
+        <v>3.0956000000000001E-2</v>
+      </c>
+      <c r="L38" s="6">
+        <v>1.0071999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.2171E-2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>5.156E-3</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3.6798999999999998E-2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2.4747000000000002E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.15085000000000001</v>
+      </c>
+      <c r="H39" s="6">
+        <v>3.7040999999999998E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.14095199999999999</v>
+      </c>
+      <c r="J39" s="6">
+        <v>3.0956000000000001E-2</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
+        <v>3.0630999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2.8003E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2.8816999999999999E-2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4.7423E-2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1.8060000000000001E-3</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2.356E-3</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.6358999999999999E-2</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1.0673E-2</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1.0071999999999999E-2</v>
+      </c>
+      <c r="K40" s="6">
+        <v>3.0630999999999999E-2</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6">
+        <v>9.665E-3</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1.9480999999999998E-2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>9.4359999999999999E-3</v>
+      </c>
+      <c r="G45" s="6">
+        <v>5.2040000000000003E-3</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1.4053E-2</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1.5348000000000001E-2</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1.3091E-2</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1.0135999999999999E-2</v>
+      </c>
+      <c r="L45" s="6">
+        <v>7.1659999999999996E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>9.665E-3</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <v>3.2669999999999998E-2</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1.4222E-2</v>
+      </c>
+      <c r="G46" s="6">
+        <v>9.5469999999999999E-3</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2.1676000000000001E-2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>2.2783000000000001E-2</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2.0976999999999999E-2</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1.1278E-2</v>
+      </c>
+      <c r="L46" s="6">
+        <v>9.4299999999999991E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.9938999999999998E-2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3.2085000000000002E-2</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <v>3.7261000000000002E-2</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1.9959999999999999E-2</v>
+      </c>
+      <c r="H47" s="6">
+        <v>6.2257E-2</v>
+      </c>
+      <c r="I47" s="6">
+        <v>6.2229E-2</v>
+      </c>
+      <c r="J47" s="6">
+        <v>6.3741000000000006E-2</v>
+      </c>
+      <c r="K47" s="6">
+        <v>3.5298000000000003E-2</v>
+      </c>
+      <c r="L47" s="6">
+        <v>2.0884E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>9.8010000000000007E-3</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1.2598E-2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3.6534999999999998E-2</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6">
+        <v>7.7120000000000001E-3</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2.2588E-2</v>
+      </c>
+      <c r="I48" s="6">
+        <v>2.4021000000000001E-2</v>
+      </c>
+      <c r="J48" s="6">
+        <v>2.2209E-2</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1.4945999999999999E-2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>8.1119999999999994E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>5.5640000000000004E-3</v>
+      </c>
+      <c r="D49" s="6">
+        <v>9.5469999999999999E-3</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2.0531000000000001E-2</v>
+      </c>
+      <c r="F49" s="6">
+        <v>9.2870000000000001E-3</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>1.4258E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1.4008E-2</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.4527E-2</v>
+      </c>
+      <c r="K49" s="6">
+        <v>9.8010000000000007E-3</v>
+      </c>
+      <c r="L49" s="6">
+        <v>5.9490000000000003E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1.3526E-2</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2.3165000000000002E-2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>6.2442999999999999E-2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>2.1944000000000002E-2</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1.3861E-2</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6">
+        <v>4.0062E-2</v>
+      </c>
+      <c r="J50" s="6">
+        <v>4.0029000000000002E-2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>2.2252000000000001E-2</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1.2673E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1.3572000000000001E-2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2.1978999999999999E-2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>6.1731000000000001E-2</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2.4560999999999999E-2</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1.4777E-2</v>
+      </c>
+      <c r="H51" s="6">
+        <v>3.6949000000000003E-2</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6">
+        <v>3.8352999999999998E-2</v>
+      </c>
+      <c r="K51" s="6">
+        <v>2.3355999999999998E-2</v>
+      </c>
+      <c r="L51" s="6">
+        <v>1.4524E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1.4616000000000001E-2</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2.2005E-2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>6.2506999999999993E-2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2.3206000000000001E-2</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1.3549E-2</v>
+      </c>
+      <c r="H52" s="6">
+        <v>3.9227999999999999E-2</v>
+      </c>
+      <c r="I52" s="6">
+        <v>3.7998999999999998E-2</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6">
+        <v>2.281E-2</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1.3806000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6">
+        <v>9.6220000000000003E-3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1.2126E-2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>3.5439999999999999E-2</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1.5036000000000001E-2</v>
+      </c>
+      <c r="G53" s="6">
+        <v>9.4319999999999994E-3</v>
+      </c>
+      <c r="H53" s="6">
+        <v>2.3243E-2</v>
+      </c>
+      <c r="I53" s="6">
+        <v>2.2773000000000002E-2</v>
+      </c>
+      <c r="J53" s="6">
+        <v>2.2135999999999999E-2</v>
+      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6">
+        <v>9.6360000000000005E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5.999E-3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1.0772E-2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1.9977000000000002E-2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>9.0290000000000006E-3</v>
+      </c>
+      <c r="G54" s="6">
+        <v>4.8650000000000004E-3</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1.4892000000000001E-2</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1.2765E-2</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1.0279E-2</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1</v>
+      </c>
+      <c r="L58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1</v>
+      </c>
+      <c r="L61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1</v>
+      </c>
+      <c r="L64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1</v>
+      </c>
+      <c r="L65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="6">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6">
+        <v>1</v>
+      </c>
+      <c r="L66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:L12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:L26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:L40">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <color theme="8" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:L54">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:L68">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>